--- a/excelTemplate/ExportBusinessVerification.xlsx
+++ b/excelTemplate/ExportBusinessVerification.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>S/N</t>
   </si>
@@ -108,6 +108,14 @@
   </si>
   <si>
     <t>&lt;%=rs1.created_at%&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETD</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.export_vessel_etd%&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -548,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -561,15 +569,15 @@
     <col min="3" max="3" width="18.375" style="6" customWidth="1"/>
     <col min="4" max="4" width="17.625" style="6" customWidth="1"/>
     <col min="5" max="5" width="18.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="26.5" style="12" customWidth="1"/>
-    <col min="10" max="11" width="26.5" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="6"/>
+    <col min="6" max="7" width="18.375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="26.5" style="12" customWidth="1"/>
+    <col min="11" max="12" width="26.5" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -588,23 +596,26 @@
       <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
@@ -624,23 +635,26 @@
         <v>17</v>
       </c>
       <c r="G2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:J1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excelTemplate/ExportBusinessVerification.xlsx
+++ b/excelTemplate/ExportBusinessVerification.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>S/N</t>
   </si>
@@ -116,6 +116,22 @@
   </si>
   <si>
     <t>&lt;%=rs1.export_vessel_etd%&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cargo Descriptions</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.export_masterbl_cargo_descriptions%&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Validity</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.export_masterbl_empty_release_valid_to%&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -566,18 +582,18 @@
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="18.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="26.5" style="12" customWidth="1"/>
-    <col min="11" max="12" width="26.5" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="6"/>
+    <col min="3" max="4" width="18.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="12" customWidth="1"/>
+    <col min="11" max="12" width="26.5" style="12" customWidth="1"/>
+    <col min="13" max="14" width="26.5" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -587,35 +603,41 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
@@ -625,36 +647,42 @@
       <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1"/>
+  <autoFilter ref="A1:K1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
